--- a/biology/Médecine/Muscle_extenseur_des_doigts_de_la_main/Muscle_extenseur_des_doigts_de_la_main.xlsx
+++ b/biology/Médecine/Muscle_extenseur_des_doigts_de_la_main/Muscle_extenseur_des_doigts_de_la_main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur des doigts (ou muscle extenseur commun des doigts) est un muscle de l'avant-bras. Il est situé dans la partie profonde de la loge antébrachiale postérieure.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur des doigts de la main se fixe sur face postérieure de l'épicondyle latéral de l'humérus par l'intermédiaire du tendon commun des extenseurs. Il se fixe également sur la face profonde du fascia antébrachial et les septums qui le séparent de ses muscles voisins.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur des doigts de la main descend sur la face postérieure de l'avant-bras  avec le muscle extenseur du petit doigt en dedans, et les muscle long abducteur du pouce et muscle court extenseur du pouce en dehors et en dessous.
 Il se divise en quatre tendons qui passent dans le rétinaculum des muscles extenseurs de la main. Les tendons s'écartent et suivent les faces dorsales des doigts longs (index, médius, annulaire et auriculaire).
@@ -577,7 +593,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque se divise en trois languettes au niveau des phalanges proximales.
 La languette centrale va s'insérer sur la face dorsale de la base de la phalange moyenne.
@@ -610,7 +628,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur des doigts est innervé par le nerf du muscle extenseur des doigts issu du rameau profond du nerf radial.
 </t>
@@ -641,7 +661,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son rôle est l'extension des quatre derniers doigts par l'intermédiaire des articulations métacarpo-phalangiennes et interphalangiennes. 
 Il est légèrement extenseur de la main sur l'avant bras.
